--- a/sapchallenge/netsale_data.xlsx
+++ b/sapchallenge/netsale_data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="8540" yWindow="0" windowWidth="21620" windowHeight="17540" tabRatio="500"/>
+    <workbookView xWindow="20" yWindow="0" windowWidth="21620" windowHeight="17540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="netsale copy.csv" sheetId="1" r:id="rId1"/>
